--- a/src/test/resources/Book.xlsx
+++ b/src/test/resources/Book.xlsx
@@ -25,7 +25,7 @@
     <t>What is the main idea of the passage, after reading?</t>
   </si>
   <si>
-    <t>Mary goes to the park with her brother.|Mary enjoys playing at the park and using the playground equipment.|Mary enjoys playing at the park and using the playground equipment.|Mary dislikes the sound of birds singing.</t>
+    <t>Mary goes to the park with her brother.|Mary enjoys playing at the park and using the playground equipment.|Mary enjoys playing at the park, and using the, playground equipment.|Mary dislikes the sound of birds singing.</t>
   </si>
   <si>
     <t>Mary enjoys playing at the park and using the playground equipment.</t>
@@ -34,7 +34,7 @@
     <t>Hello</t>
   </si>
   <si>
-    <t/>
+    <t>Facts</t>
   </si>
   <si>
     <t>HI</t>
@@ -108,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -120,9 +120,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
@@ -442,9 +439,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="36.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="36.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="1">
@@ -473,10 +470,10 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
